--- a/UF3/projectRallyB/Registre individual.xlsx
+++ b/UF3/projectRallyB/Registre individual.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27204"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DAW2\M06\UF3\projectRallyB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9CC6A0-926E-4261-BD0F-5D71ABE8F23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B3192A-EF84-456D-B6F6-1278FE545B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -75,13 +75,19 @@
     <t>2h</t>
   </si>
   <si>
-    <t>Fase 3</t>
-  </si>
-  <si>
     <t>Preparacio del formulari i plantejament del codi</t>
   </si>
   <si>
     <t>Preparacio dels camps i premeres funcio per recollir les dades</t>
+  </si>
+  <si>
+    <t>Finalitzacio de les validacions i guardar aposta + mosdtrar ultima aposta</t>
+  </si>
+  <si>
+    <t>Preparacio per les validacions i mostrar els errors</t>
+  </si>
+  <si>
+    <t>Casa</t>
   </si>
 </sst>
 </file>
@@ -400,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,7 +418,7 @@
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="52.77734375" customWidth="1"/>
+    <col min="5" max="5" width="60.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -506,10 +512,10 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -526,10 +532,50 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
